--- a/biology/Botanique/Apollonias_barbujana/Apollonias_barbujana.xlsx
+++ b/biology/Botanique/Apollonias_barbujana/Apollonias_barbujana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Apollonias barbujana est une  espèce d'arbres de la famille des Lauracées, originaire des Açores, de Madère et des îles Canaries. C'est un arbre au feuillage persistant qui peut atteindre une hauteur de 25 m. Il a de petites fleurs blanc verdâtre qui fleurissent d'octobre à mai, et des fruits de couleur noire à maturité.
 Le bois, lourd et dur, est difficile à travailler, mais a été utilisé pour la construction navale (il y avait autrefois de grands arbres abondants au sud de Madère) et aussi dans la fabrication d’ustensiles agricoles. 
@@ -512,9 +524,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (20 mai 2013)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (20 mai 2013) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Apollonias barbujana subsp. ceballosi (Svent.) G. Kunkel</t>
         </is>
       </c>
